--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0964463714015507</v>
+        <v>4.559492095613591</v>
       </c>
       <c r="C2" t="n">
         <v>0.3056020712527899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192431323412709</v>
+        <v>0.1199195500863949</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1184478346875757</v>
+        <v>5.743011771835743</v>
       </c>
       <c r="C3" t="n">
         <v>0.3772538132144836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5129051816946476</v>
+        <v>0.1467104739016565</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09335119491811884</v>
+        <v>4.42092078961273</v>
       </c>
       <c r="C4" t="n">
         <v>0.2957352413182927</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4025288504646627</v>
+        <v>0.1151386270180393</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1016973620748439</v>
+        <v>4.836705981033811</v>
       </c>
       <c r="C5" t="n">
         <v>0.3247039400627882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4353560914563882</v>
+        <v>0.124528471875655</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09467623786538563</v>
+        <v>4.495688867305734</v>
       </c>
       <c r="C6" t="n">
         <v>0.3017606712020957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4052559389370534</v>
+        <v>0.1159186784903879</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1052449961130977</v>
+        <v>5.088113305277283</v>
       </c>
       <c r="C7" t="n">
         <v>0.3417212946909425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4504822434660082</v>
+        <v>0.1288551291387142</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1185768020217431</v>
+        <v>5.745681105862809</v>
       </c>
       <c r="C8" t="n">
         <v>0.3775933969437297</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5114418116827949</v>
+        <v>0.1462918941805021</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.118343453820853</v>
+        <v>5.733757743061596</v>
       </c>
       <c r="C9" t="n">
         <v>0.3770851945820034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5124735375327796</v>
+        <v>0.1465870071834313</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0154594213127475</v>
+        <v>5.43977595672245</v>
       </c>
       <c r="C10" t="n">
         <v>0.06865072470528635</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07716465633755977</v>
+        <v>0.1390761683775158</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1880921737138515</v>
+        <v>8.47673894372187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6158335107732791</v>
+        <v>0.6220115057585476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6654450156156363</v>
+        <v>0.1915497022164172</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2065174174025415</v>
+        <v>9.195990995205113</v>
       </c>
       <c r="C12" t="n">
         <v>0.6834858877292538</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7204438522623987</v>
+        <v>0.2060744612400443</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1837176941590257</v>
+        <v>8.206618027061662</v>
       </c>
       <c r="C13" t="n">
         <v>0.5990787654435735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.654723862438998</v>
+        <v>0.1872760337803207</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.559492095613591</v>
+        <v>4.559492095623867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3056020712527899</v>
+        <v>0.3056020712536353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1199195500863949</v>
+        <v>0.119919550086983</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.743011771835743</v>
+        <v>5.743011771832698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3772538132144836</v>
+        <v>0.3772538132143097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1467104739016565</v>
+        <v>0.1467104739015594</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.42092078961273</v>
+        <v>4.420920789620316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2957352413182927</v>
+        <v>0.2957352413191298</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1151386270180393</v>
+        <v>0.1151386270204857</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.836705981033811</v>
+        <v>4.775202414139617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3247039400627882</v>
+        <v>0.3205085869347231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.124528471875655</v>
+        <v>0.1230294824012936</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.495688867305734</v>
+        <v>4.500785754495994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3017606712020957</v>
+        <v>0.3021042126391991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1159186784903879</v>
+        <v>0.1160137678662383</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.088113305277283</v>
+        <v>5.085713215393493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3417212946909425</v>
+        <v>0.3415355496678413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1288551291387142</v>
+        <v>0.1288179347496836</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.745681105862809</v>
+        <v>5.744341039620774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3775933969437297</v>
+        <v>0.3775093861475724</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1462918941805021</v>
+        <v>0.1462572402508021</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.733757743061596</v>
+        <v>5.731942003752833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3770851945820034</v>
+        <v>0.3769729825698531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1465870071834313</v>
+        <v>0.1465318594127601</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.43977595672245</v>
+        <v>6.03216904582106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06865072470528635</v>
+        <v>0.3436209252867154</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1390761683775158</v>
+        <v>0.1395509322608996</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.47673894372187</v>
+        <v>8.442668896455103</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6220115057585476</v>
+        <v>0.6192390560756622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1915497022164172</v>
+        <v>0.1910433234019888</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.195990995205113</v>
+        <v>8.396713879317655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6834858877292538</v>
+        <v>0.6154032805284196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2060744612400443</v>
+        <v>0.1905766568420407</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.206618027061662</v>
+        <v>9.169792068952273</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5990787654435735</v>
+        <v>0.6812602140529413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1872760337803207</v>
+        <v>0.2060361840739774</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.442668896455103</v>
+        <v>8.444461087871478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6192390560756622</v>
+        <v>0.6193855215953591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1910433234019888</v>
+        <v>0.1911141424405731</v>
       </c>
     </row>
     <row r="12">
